--- a/data_xlsx/深证成份指数.xlsx
+++ b/data_xlsx/深证成份指数.xlsx
@@ -26362,8 +26362,144 @@
         <v>11028.683</v>
       </c>
     </row>
+    <row r="3286">
+      <c r="A3286" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3286" s="2" t="n">
+        <v>10919.2586</v>
+      </c>
+    </row>
     <row r="3287">
-      <c r="A3287" s="3" t="inlineStr">
+      <c r="A3287" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3287" s="2" t="n">
+        <v>11095.4366</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3288" s="2" t="n">
+        <v>11080.3233</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3289" s="2" t="n">
+        <v>11010.3578</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3290" s="2" t="n">
+        <v>10972.9624</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3291" s="2" t="n">
+        <v>10932.6491</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3292" s="2" t="n">
+        <v>10816.2715</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3293" s="2" t="n">
+        <v>10810.1815</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3294" s="2" t="n">
+        <v>10747.7928</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3295" s="2" t="n">
+        <v>11021.2907</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3296" s="2" t="n">
+        <v>10968.9802</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3297" s="2" t="n">
+        <v>10923.7746</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3298" s="2" t="n">
+        <v>11100.3951</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3299" s="2" t="n">
+        <v>11183.9113</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3300" s="2" t="n">
+        <v>11143.2347</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3301" s="2" t="n">
+        <v>11104.1586</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3302" s="2" t="n">
+        <v>11163.4197</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
